--- a/Nota_fiscal.xlsx
+++ b/Nota_fiscal.xlsx
@@ -546,12 +546,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8000"/>
-        <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF780373"/>
         <bgColor rgb="FF800080"/>
       </patternFill>
@@ -560,6 +554,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
         <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
   </fills>
@@ -660,10 +660,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -688,7 +684,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -700,11 +696,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -712,8 +708,12 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -823,8 +823,8 @@
   </sheetPr>
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -928,23 +928,23 @@
       <c r="H2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="15"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
@@ -965,30 +965,30 @@
       <c r="F3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="18"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
@@ -1006,69 +1006,69 @@
       <c r="E4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="15"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
@@ -1083,7 +1083,7 @@
       <c r="D6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1104,16 +1104,16 @@
       <c r="K6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="15"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
@@ -1131,7 +1131,7 @@
       <c r="E7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>55</v>
       </c>
       <c r="G7" s="10" t="s">
@@ -1143,26 +1143,26 @@
       <c r="I7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="15"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
@@ -1186,26 +1186,26 @@
       <c r="G8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="15"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
@@ -1229,38 +1229,38 @@
       <c r="G9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>65</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="15"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
@@ -1290,28 +1290,28 @@
       <c r="I10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="15"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
@@ -1332,29 +1332,29 @@
       <c r="F11" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="15"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
@@ -1381,25 +1381,25 @@
       <c r="H12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="15"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
@@ -1423,32 +1423,32 @@
       <c r="G13" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="15"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
@@ -1478,24 +1478,24 @@
       <c r="I14" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="15"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
@@ -1519,24 +1519,24 @@
       <c r="G15" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="15"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
@@ -1566,22 +1566,22 @@
       <c r="I16" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="15"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
@@ -1623,18 +1623,18 @@
       <c r="M17" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N17" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="O17" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="15"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
@@ -1652,52 +1652,52 @@
       <c r="E18" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="N18" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="O18" s="16" t="s">
+      <c r="O18" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P18" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="Q18" s="16" t="s">
+      <c r="Q18" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="R18" s="17" t="s">
+      <c r="R18" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="S18" s="16" t="s">
+      <c r="S18" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="T18" s="17" t="s">
+      <c r="T18" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="U18" s="16"/>
+      <c r="U18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
@@ -1707,22 +1707,22 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
@@ -1732,22 +1732,22 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
@@ -1757,22 +1757,22 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
@@ -1782,22 +1782,22 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
@@ -1807,22 +1807,22 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
@@ -1832,22 +1832,22 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
@@ -1857,22 +1857,22 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
@@ -1882,22 +1882,22 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
@@ -1907,22 +1907,22 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="27" t="s">
@@ -1932,22 +1932,22 @@
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="28"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="15"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="27" t="s">
@@ -1957,22 +1957,22 @@
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="15"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="27" t="s">
@@ -1982,22 +1982,22 @@
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="28"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="15"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="27" t="s">
@@ -2007,22 +2007,22 @@
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="28"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="15"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="27" t="s">
@@ -2032,22 +2032,22 @@
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="15"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="29"/>
